--- a/TestCase Герасимов М.xlsx
+++ b/TestCase Герасимов М.xlsx
@@ -222,12 +222,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -294,95 +306,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,14 +705,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="5.140625" customWidth="1"/>
@@ -705,942 +723,924 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="5">
         <v>321</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="5">
         <v>5000</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="7">
         <v>4</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="7">
         <v>5</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="12" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="23" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>1</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="21">
-        <v>1</v>
-      </c>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="21">
-        <v>1</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="5">
         <v>321</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="7">
         <v>3</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="7">
         <v>4</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="5">
         <v>9999</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="7">
         <v>4</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="7">
         <v>5</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="6">
         <v>6</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="7">
         <v>6</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="7">
         <v>6</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="12" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="23" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="24"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>1</v>
-      </c>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="6">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="21">
-        <v>1</v>
-      </c>
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="21">
-        <v>1</v>
-      </c>
-      <c r="F33" s="25" t="s">
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="6">
         <v>2</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="7">
         <v>2</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="7">
         <v>2</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="6">
         <v>3</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="7">
         <v>3</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="5">
         <v>321</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="7">
         <v>3</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="6">
         <v>4</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="7">
         <v>4</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="14">
         <v>10000</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="7">
         <v>4</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="6">
         <v>5</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="7">
         <v>5</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="7">
         <v>5</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="6">
         <v>6</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="7">
         <v>6</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="7">
         <v>6</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="12" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="13" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="23" t="s">
+      <c r="D46" s="28"/>
+      <c r="E46" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="24"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
-        <v>1</v>
-      </c>
-      <c r="B47" s="19" t="s">
+      <c r="A47" s="6">
+        <v>1</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="21">
-        <v>1</v>
-      </c>
-      <c r="D47" s="22" t="s">
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="21">
-        <v>1</v>
-      </c>
-      <c r="F47" s="25" t="s">
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+      <c r="A48" s="6">
         <v>2</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="7">
         <v>2</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="7">
         <v>2</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="6">
         <v>3</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="7">
         <v>3</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="5">
         <v>321</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="7">
         <v>3</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
+      <c r="A50" s="6">
         <v>4</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="7">
         <v>4</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="5">
         <v>0</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="7">
         <v>4</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+      <c r="A51" s="6">
         <v>5</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="7">
         <v>5</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="7">
         <v>5</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+      <c r="A52" s="6">
         <v>6</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="7">
         <v>6</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="7">
         <v>6</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="29"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="12" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="11"/>
+      <c r="A58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="4"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="13" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="23" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="30"/>
     </row>
     <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
-        <v>1</v>
-      </c>
-      <c r="B61" s="19" t="s">
+      <c r="A61" s="6">
+        <v>1</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="21">
-        <v>1</v>
-      </c>
-      <c r="D61" s="22" t="s">
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="21">
-        <v>1</v>
-      </c>
-      <c r="F61" s="25" t="s">
+      <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="11"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
@@ -1652,14 +1652,32 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
